--- a/39ԿՏՊ.xlsx
+++ b/39ԿՏՊ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\hec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\Desktop\hec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B1D93D-A18E-40F2-955F-840DA915D0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB33500-74D2-47A5-B2F6-1A7522F92D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="257" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3011,7 +3011,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
